--- a/data/trans_orig/P78C_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P78C_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4FBDE1A4-2A5F-4B1E-BF84-E2F85A3A624F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{10B344EA-97A6-4825-AF07-753BE765CD6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{78C20CE0-4E7C-4BE0-8B4F-80BBA80EF59C}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{54A14769-B4FC-4DBB-83E9-9AD639FC9C07}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="291">
   <si>
     <t>Población según la categoría profesional que tiene o tenía en la empresa donde trabaja o trabajaba en 2023 (Tasa respuesta: 4,98%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>75,58%</t>
   </si>
   <si>
-    <t>49,9%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
+    <t>50,47%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
   </si>
   <si>
     <t>60,39%</t>
   </si>
   <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>78,99%</t>
+    <t>40,91%</t>
+  </si>
+  <si>
+    <t>79,2%</t>
   </si>
   <si>
     <t>67,33%</t>
   </si>
   <si>
-    <t>52,11%</t>
-  </si>
-  <si>
-    <t>79,72%</t>
+    <t>52,34%</t>
+  </si>
+  <si>
+    <t>79,24%</t>
   </si>
   <si>
     <t>TRABAJADOR POR CUENTA AJENA Capataz, supervisor o encargado</t>
@@ -128,22 +128,22 @@
     <t>7,53%</t>
   </si>
   <si>
-    <t>24,08%</t>
+    <t>25,12%</t>
   </si>
   <si>
     <t>7,24%</t>
   </si>
   <si>
-    <t>23,38%</t>
+    <t>22,0%</t>
   </si>
   <si>
     <t>7,38%</t>
   </si>
   <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
   </si>
   <si>
     <t>TRABAJADOR O EMPRESARIO POR CUENTA PROPIA Con 10 o más asalariados</t>
@@ -155,28 +155,28 @@
     <t>16,88%</t>
   </si>
   <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>40,66%</t>
   </si>
   <si>
     <t>32,37%</t>
   </si>
   <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>54,73%</t>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>53,75%</t>
   </si>
   <si>
     <t>25,29%</t>
   </si>
   <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
   </si>
   <si>
     <t>100%</t>
@@ -188,55 +188,55 @@
     <t>67,07%</t>
   </si>
   <si>
-    <t>49,28%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
+    <t>47,26%</t>
+  </si>
+  <si>
+    <t>81,68%</t>
   </si>
   <si>
     <t>77,31%</t>
   </si>
   <si>
-    <t>65,2%</t>
-  </si>
-  <si>
-    <t>86,83%</t>
+    <t>63,32%</t>
+  </si>
+  <si>
+    <t>86,3%</t>
   </si>
   <si>
     <t>73,05%</t>
   </si>
   <si>
-    <t>62,96%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
+    <t>62,93%</t>
+  </si>
+  <si>
+    <t>81,59%</t>
   </si>
   <si>
     <t>4,08%</t>
   </si>
   <si>
-    <t>21,21%</t>
+    <t>17,79%</t>
   </si>
   <si>
     <t>3,29%</t>
   </si>
   <si>
-    <t>11,28%</t>
+    <t>11,11%</t>
   </si>
   <si>
     <t>3,62%</t>
   </si>
   <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
   </si>
   <si>
     <t>2,76%</t>
   </si>
   <si>
-    <t>12,08%</t>
+    <t>16,01%</t>
   </si>
   <si>
     <t>3,09%</t>
@@ -245,7 +245,7 @@
     <t>1,15%</t>
   </si>
   <si>
-    <t>5,01%</t>
+    <t>6,2%</t>
   </si>
   <si>
     <t>5,78%</t>
@@ -257,73 +257,73 @@
     <t>13,95%</t>
   </si>
   <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
   </si>
   <si>
     <t>4,82%</t>
   </si>
   <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
   </si>
   <si>
     <t>8,62%</t>
   </si>
   <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
   </si>
   <si>
     <t>6,76%</t>
   </si>
   <si>
-    <t>20,58%</t>
+    <t>24,2%</t>
   </si>
   <si>
     <t>1,69%</t>
   </si>
   <si>
-    <t>9,64%</t>
+    <t>8,99%</t>
   </si>
   <si>
     <t>3,8%</t>
   </si>
   <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
   </si>
   <si>
     <t>5,39%</t>
   </si>
   <si>
-    <t>16,38%</t>
+    <t>18,72%</t>
   </si>
   <si>
     <t>12,89%</t>
   </si>
   <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
   </si>
   <si>
     <t>9,77%</t>
   </si>
   <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -332,55 +332,55 @@
     <t>67,68%</t>
   </si>
   <si>
-    <t>42,11%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
+    <t>41,6%</t>
+  </si>
+  <si>
+    <t>85,25%</t>
   </si>
   <si>
     <t>67,51%</t>
   </si>
   <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>76,62%</t>
+    <t>57,43%</t>
+  </si>
+  <si>
+    <t>77,52%</t>
   </si>
   <si>
     <t>67,56%</t>
   </si>
   <si>
-    <t>58,13%</t>
-  </si>
-  <si>
-    <t>76,3%</t>
+    <t>57,39%</t>
+  </si>
+  <si>
+    <t>75,99%</t>
   </si>
   <si>
     <t>14,69%</t>
   </si>
   <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>35,84%</t>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
   </si>
   <si>
     <t>6,63%</t>
   </si>
   <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
   </si>
   <si>
     <t>8,81%</t>
   </si>
   <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
   </si>
   <si>
     <t>9,49%</t>
@@ -395,508 +395,517 @@
     <t>1,45%</t>
   </si>
   <si>
-    <t>7,25%</t>
+    <t>6,46%</t>
   </si>
   <si>
     <t>1,06%</t>
   </si>
   <si>
-    <t>5,79%</t>
+    <t>5,71%</t>
   </si>
   <si>
     <t>8,02%</t>
   </si>
   <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
   </si>
   <si>
     <t>5,84%</t>
   </si>
   <si>
-    <t>2,48%</t>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>66,01%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>67,34%</t>
+  </si>
+  <si>
+    <t>57,86%</t>
+  </si>
+  <si>
+    <t>76,17%</t>
+  </si>
+  <si>
+    <t>67,2%</t>
+  </si>
+  <si>
+    <t>58,2%</t>
+  </si>
+  <si>
+    <t>76,2%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>71,46%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>51,84%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>59,89%</t>
+  </si>
+  <si>
+    <t>63,05%</t>
+  </si>
+  <si>
+    <t>49,56%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>58,46%</t>
+  </si>
+  <si>
+    <t>46,1%</t>
+  </si>
+  <si>
+    <t>70,31%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>64,21%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>38,63%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>41,35%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>68,45%</t>
+  </si>
+  <si>
+    <t>67,83%</t>
+  </si>
+  <si>
+    <t>56,53%</t>
+  </si>
+  <si>
+    <t>78,15%</t>
+  </si>
+  <si>
+    <t>68,05%</t>
+  </si>
+  <si>
+    <t>62,09%</t>
+  </si>
+  <si>
+    <t>73,36%</t>
+  </si>
+  <si>
+    <t>67,98%</t>
+  </si>
+  <si>
+    <t>62,98%</t>
+  </si>
+  <si>
+    <t>72,71%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
   </si>
   <si>
     <t>11,77%</t>
   </si>
   <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>40,55%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>66,01%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>67,34%</t>
-  </si>
-  <si>
-    <t>57,12%</t>
-  </si>
-  <si>
-    <t>75,99%</t>
-  </si>
-  <si>
-    <t>67,2%</t>
-  </si>
-  <si>
-    <t>57,88%</t>
-  </si>
-  <si>
-    <t>76,24%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>71,13%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>48,2%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>59,89%</t>
-  </si>
-  <si>
-    <t>63,05%</t>
-  </si>
-  <si>
-    <t>49,44%</t>
-  </si>
-  <si>
-    <t>76,65%</t>
-  </si>
-  <si>
-    <t>58,46%</t>
-  </si>
-  <si>
-    <t>44,89%</t>
-  </si>
-  <si>
-    <t>71,58%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>64,21%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>68,45%</t>
-  </si>
-  <si>
-    <t>67,83%</t>
-  </si>
-  <si>
-    <t>57,69%</t>
-  </si>
-  <si>
-    <t>77,54%</t>
-  </si>
-  <si>
-    <t>68,05%</t>
-  </si>
-  <si>
-    <t>62,09%</t>
-  </si>
-  <si>
-    <t>73,44%</t>
-  </si>
-  <si>
-    <t>67,98%</t>
-  </si>
-  <si>
-    <t>62,82%</t>
-  </si>
-  <si>
-    <t>72,87%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
     <t>3,13%</t>
   </si>
   <si>
+    <t>1,76%</t>
+  </si>
+  <si>
     <t>5,47%</t>
   </si>
   <si>
     <t>3,49%</t>
   </si>
   <si>
-    <t>2,02%</t>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
   </si>
   <si>
     <t>10,85%</t>
   </si>
   <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
   </si>
   <si>
     <t>17,59%</t>
   </si>
   <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
   </si>
   <si>
     <t>15,52%</t>
   </si>
   <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1311,7 +1320,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92E1772B-F03B-418D-8ABE-C391F956A7B1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2108FE8B-96D7-4659-9045-03B40F806EB8}">
   <dimension ref="A1:Q60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2749,7 +2758,7 @@
         <v>160</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>161</v>
@@ -3384,10 +3393,10 @@
         <v>218</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>21</v>
+        <v>219</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H42" s="7">
         <v>14</v>
@@ -3396,13 +3405,13 @@
         <v>8484</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M42" s="7">
         <v>17</v>
@@ -3411,13 +3420,13 @@
         <v>10356</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3473,7 +3482,7 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>10</v>
@@ -3491,7 +3500,7 @@
         <v>22</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H44" s="7">
         <v>1</v>
@@ -3500,10 +3509,10 @@
         <v>627</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L44" s="7" t="s">
         <v>47</v>
@@ -3515,13 +3524,13 @@
         <v>627</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P44" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3542,7 +3551,7 @@
         <v>22</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H45" s="7">
         <v>0</v>
@@ -3557,7 +3566,7 @@
         <v>22</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M45" s="7">
         <v>0</v>
@@ -3572,7 +3581,7 @@
         <v>22</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3593,7 +3602,7 @@
         <v>22</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H46" s="7">
         <v>0</v>
@@ -3608,7 +3617,7 @@
         <v>22</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M46" s="7">
         <v>0</v>
@@ -3623,7 +3632,7 @@
         <v>22</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3644,7 +3653,7 @@
         <v>22</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H47" s="7">
         <v>0</v>
@@ -3659,7 +3668,7 @@
         <v>22</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M47" s="7">
         <v>0</v>
@@ -3674,7 +3683,7 @@
         <v>22</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3689,10 +3698,10 @@
         <v>1360</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G48" s="7" t="s">
         <v>47</v>
@@ -3710,7 +3719,7 @@
         <v>22</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M48" s="7">
         <v>2</v>
@@ -3719,13 +3728,13 @@
         <v>1360</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P48" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -3746,7 +3755,7 @@
         <v>22</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H49" s="7">
         <v>0</v>
@@ -3761,7 +3770,7 @@
         <v>22</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M49" s="7">
         <v>0</v>
@@ -3776,7 +3785,7 @@
         <v>22</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -3797,7 +3806,7 @@
         <v>22</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H50" s="7">
         <v>0</v>
@@ -3812,7 +3821,7 @@
         <v>22</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M50" s="7">
         <v>0</v>
@@ -3827,7 +3836,7 @@
         <v>22</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -3895,13 +3904,13 @@
         <v>86105</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H52" s="7">
         <v>238</v>
@@ -3910,13 +3919,13 @@
         <v>195204</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M52" s="7">
         <v>290</v>
@@ -3925,13 +3934,13 @@
         <v>281309</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -3946,13 +3955,13 @@
         <v>8260</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H53" s="7">
         <v>15</v>
@@ -3961,10 +3970,10 @@
         <v>12371</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="L53" s="7" t="s">
         <v>248</v>
@@ -4003,7 +4012,7 @@
         <v>21</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>88</v>
+        <v>253</v>
       </c>
       <c r="H54" s="7">
         <v>0</v>
@@ -4018,7 +4027,7 @@
         <v>22</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M54" s="7">
         <v>1</v>
@@ -4027,13 +4036,13 @@
         <v>1312</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="P54" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4054,7 +4063,7 @@
         <v>22</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H55" s="7">
         <v>5</v>
@@ -4063,13 +4072,13 @@
         <v>3196</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="M55" s="7">
         <v>5</v>
@@ -4078,13 +4087,13 @@
         <v>3196</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4099,13 +4108,13 @@
         <v>12008</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="H56" s="7">
         <v>20</v>
@@ -4114,13 +4123,13 @@
         <v>16656</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>266</v>
+        <v>181</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M56" s="7">
         <v>31</v>
@@ -4129,13 +4138,13 @@
         <v>28664</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4150,13 +4159,13 @@
         <v>5483</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H57" s="7">
         <v>13</v>
@@ -4165,13 +4174,13 @@
         <v>8973</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>34</v>
+        <v>276</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="M57" s="7">
         <v>17</v>
@@ -4180,13 +4189,13 @@
         <v>14456</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>91</v>
+        <v>280</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -4201,13 +4210,13 @@
         <v>13771</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="H58" s="7">
         <v>59</v>
@@ -4216,13 +4225,13 @@
         <v>50472</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="M58" s="7">
         <v>70</v>
@@ -4231,13 +4240,13 @@
         <v>64243</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -4293,7 +4302,7 @@
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P78C_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P78C_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{10B344EA-97A6-4825-AF07-753BE765CD6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9F58577-CAA2-4BD4-A92B-F1602AB8A1AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{54A14769-B4FC-4DBB-83E9-9AD639FC9C07}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C8A1BEFE-30F4-42CD-B1AD-380980940040}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1320,7 +1320,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2108FE8B-96D7-4659-9045-03B40F806EB8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82F60CFA-C8B9-40EB-B4B0-82D4912EAC43}">
   <dimension ref="A1:Q60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P78C_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P78C_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9F58577-CAA2-4BD4-A92B-F1602AB8A1AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D89A126-014A-47CC-A4FB-18156ED9D59F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C8A1BEFE-30F4-42CD-B1AD-380980940040}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{43FEE5FD-1C47-474F-92FB-F4F27C2E0407}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="291">
-  <si>
-    <t>Población según la categoría profesional que tiene o tenía en la empresa donde trabaja o trabajaba en 2023 (Tasa respuesta: 4,98%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="369">
+  <si>
+    <t>Población según la categoría profesional que tiene o tenía en la empresa donde trabaja o trabajaba la persona sustentadora principal en 2023 (Tasa respuesta: 83,48%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -71,841 +71,1075 @@
     <t>TRABAJADOR POR CUENTA AJENA Otro asalariado</t>
   </si>
   <si>
-    <t>75,58%</t>
-  </si>
-  <si>
-    <t>50,47%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>60,39%</t>
-  </si>
-  <si>
-    <t>40,91%</t>
-  </si>
-  <si>
-    <t>79,2%</t>
-  </si>
-  <si>
-    <t>67,33%</t>
-  </si>
-  <si>
-    <t>52,34%</t>
-  </si>
-  <si>
-    <t>79,24%</t>
+    <t>86,28%</t>
+  </si>
+  <si>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>83,59%</t>
+  </si>
+  <si>
+    <t>72,97%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>77,76%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
   </si>
   <si>
     <t>TRABAJADOR POR CUENTA AJENA Capataz, supervisor o encargado</t>
   </si>
   <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
     <t>0,0%</t>
   </si>
   <si>
     <t>0%</t>
   </si>
   <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
   </si>
   <si>
     <t>TRABAJADOR POR CUENTA AJENA Gerente de una empresa con menos de 10 asalariados</t>
   </si>
   <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
     <t>TRABAJADOR POR CUENTA AJENA Gerente de una empresa con 10 o más asalariados</t>
   </si>
   <si>
     <t>TRABAJADOR O EMPRESARIO POR CUENTA PROPIA Con menos de 10 asalariados</t>
   </si>
   <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>TRABAJADOR O EMPRESARIO POR CUENTA PROPIA Con 10 o más asalariados</t>
+  </si>
+  <si>
+    <t>TRABAJADOR O EMPRESARIO POR CUENTA PROPIA Sin asalariados</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>79,14%</t>
+  </si>
+  <si>
+    <t>73,5%</t>
+  </si>
+  <si>
+    <t>83,97%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>74,23%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>82,16%</t>
+  </si>
+  <si>
+    <t>76,57%</t>
+  </si>
+  <si>
+    <t>85,46%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>70,69%</t>
+  </si>
+  <si>
+    <t>66,23%</t>
+  </si>
+  <si>
+    <t>74,6%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
+  </si>
+  <si>
+    <t>79,3%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>76,35%</t>
+  </si>
+  <si>
+    <t>73,91%</t>
+  </si>
+  <si>
+    <t>78,96%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>65,4%</t>
+  </si>
+  <si>
+    <t>50,68%</t>
+  </si>
+  <si>
+    <t>71,81%</t>
+  </si>
+  <si>
+    <t>78,8%</t>
+  </si>
+  <si>
+    <t>76,1%</t>
+  </si>
+  <si>
+    <t>81,63%</t>
+  </si>
+  <si>
+    <t>71,8%</t>
+  </si>
+  <si>
+    <t>62,09%</t>
+  </si>
+  <si>
+    <t>75,38%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
   </si>
   <si>
     <t>7,38%</t>
   </si>
   <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>70,06%</t>
+  </si>
+  <si>
+    <t>66,39%</t>
+  </si>
+  <si>
+    <t>73,81%</t>
+  </si>
+  <si>
+    <t>78,18%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>73,66%</t>
+  </si>
+  <si>
+    <t>70,93%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>65,03%</t>
+  </si>
+  <si>
+    <t>62,17%</t>
+  </si>
+  <si>
+    <t>67,86%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>75,92%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
+  </si>
+  <si>
+    <t>72,58%</t>
+  </si>
+  <si>
+    <t>69,34%</t>
+  </si>
+  <si>
+    <t>79,07%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>69,96%</t>
+  </si>
+  <si>
+    <t>65,13%</t>
+  </si>
+  <si>
+    <t>71,92%</t>
+  </si>
+  <si>
+    <t>80,9%</t>
+  </si>
+  <si>
+    <t>78,92%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>75,22%</t>
+  </si>
+  <si>
+    <t>73,15%</t>
+  </si>
+  <si>
+    <t>76,91%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
     <t>1,74%</t>
   </si>
   <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>TRABAJADOR O EMPRESARIO POR CUENTA PROPIA Con 10 o más asalariados</t>
-  </si>
-  <si>
-    <t>TRABAJADOR O EMPRESARIO POR CUENTA PROPIA Sin asalariados</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>40,66%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>53,75%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>67,07%</t>
-  </si>
-  <si>
-    <t>47,26%</t>
-  </si>
-  <si>
-    <t>81,68%</t>
-  </si>
-  <si>
-    <t>77,31%</t>
-  </si>
-  <si>
-    <t>63,32%</t>
-  </si>
-  <si>
-    <t>86,3%</t>
-  </si>
-  <si>
-    <t>73,05%</t>
-  </si>
-  <si>
-    <t>62,93%</t>
-  </si>
-  <si>
-    <t>81,59%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
   </si>
   <si>
     <t>11,58%</t>
   </si>
   <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>67,68%</t>
-  </si>
-  <si>
-    <t>41,6%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
-  </si>
-  <si>
-    <t>67,51%</t>
-  </si>
-  <si>
-    <t>57,43%</t>
-  </si>
-  <si>
-    <t>77,52%</t>
-  </si>
-  <si>
-    <t>67,56%</t>
-  </si>
-  <si>
-    <t>57,39%</t>
-  </si>
-  <si>
-    <t>75,99%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>66,01%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>67,34%</t>
-  </si>
-  <si>
-    <t>57,86%</t>
-  </si>
-  <si>
-    <t>76,17%</t>
-  </si>
-  <si>
-    <t>67,2%</t>
-  </si>
-  <si>
-    <t>58,2%</t>
-  </si>
-  <si>
-    <t>76,2%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>71,46%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>51,84%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>59,89%</t>
-  </si>
-  <si>
-    <t>63,05%</t>
-  </si>
-  <si>
-    <t>49,56%</t>
-  </si>
-  <si>
-    <t>75,01%</t>
-  </si>
-  <si>
-    <t>58,46%</t>
-  </si>
-  <si>
-    <t>46,1%</t>
-  </si>
-  <si>
-    <t>70,31%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>64,21%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>38,63%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>41,35%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>68,45%</t>
-  </si>
-  <si>
-    <t>67,83%</t>
-  </si>
-  <si>
-    <t>56,53%</t>
-  </si>
-  <si>
-    <t>78,15%</t>
-  </si>
-  <si>
-    <t>68,05%</t>
-  </si>
-  <si>
-    <t>62,09%</t>
-  </si>
-  <si>
-    <t>73,36%</t>
-  </si>
-  <si>
-    <t>67,98%</t>
-  </si>
-  <si>
-    <t>62,98%</t>
-  </si>
-  <si>
-    <t>72,71%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1320,7 +1554,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82F60CFA-C8B9-40EB-B4B0-82D4912EAC43}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75CCE33E-1014-4B8F-91B2-AAFBB1210776}">
   <dimension ref="A1:Q60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1438,10 +1672,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="D4" s="7">
-        <v>32113</v>
+        <v>126771</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1453,10 +1687,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="I4" s="7">
-        <v>30466</v>
+        <v>107351</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1468,10 +1702,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="N4" s="7">
-        <v>62579</v>
+        <v>234122</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1489,10 +1723,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>8084</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1510,34 +1744,34 @@
         <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>8084</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -1546,13 +1780,13 @@
         <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -1561,13 +1795,13 @@
         <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -1576,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C7" s="7">
         <v>0</v>
@@ -1597,13 +1831,13 @@
         <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -1612,13 +1846,13 @@
         <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -1627,19 +1861,19 @@
         <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C8" s="7">
         <v>2</v>
@@ -1648,13 +1882,13 @@
         <v>3201</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -1663,13 +1897,13 @@
         <v>3653</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="M8" s="7">
         <v>4</v>
@@ -1678,19 +1912,19 @@
         <v>6854</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C9" s="7">
         <v>0</v>
@@ -1699,13 +1933,13 @@
         <v>0</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -1714,13 +1948,13 @@
         <v>0</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -1729,64 +1963,64 @@
         <v>0</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C10" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10" s="7">
-        <v>7174</v>
+        <v>8872</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H10" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I10" s="7">
-        <v>16330</v>
+        <v>17417</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="M10" s="7">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N10" s="7">
-        <v>23504</v>
+        <v>26289</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1795,102 +2029,102 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="D11" s="7">
-        <v>42488</v>
+        <v>146928</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="H11" s="7">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="I11" s="7">
-        <v>50449</v>
+        <v>128421</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="M11" s="7">
-        <v>48</v>
+        <v>159</v>
       </c>
       <c r="N11" s="7">
-        <v>92937</v>
+        <v>275349</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>20</v>
+        <v>227</v>
       </c>
       <c r="D12" s="7">
-        <v>31922</v>
+        <v>321547</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="H12" s="7">
-        <v>47</v>
+        <v>355</v>
       </c>
       <c r="I12" s="7">
-        <v>51623</v>
+        <v>368113</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="M12" s="7">
-        <v>67</v>
+        <v>582</v>
       </c>
       <c r="N12" s="7">
-        <v>83545</v>
+        <v>689660</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1899,223 +2133,223 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D13" s="7">
-        <v>1942</v>
+        <v>26712</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="H13" s="7">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="I13" s="7">
-        <v>2197</v>
+        <v>15928</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="M13" s="7">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="N13" s="7">
-        <v>4139</v>
+        <v>42640</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C14" s="7">
         <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>1164</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="M14" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N14" s="7">
-        <v>1312</v>
+        <v>2476</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C15" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" s="7">
-        <v>0</v>
+        <v>3261</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H15" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="7">
-        <v>0</v>
+        <v>763</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="M15" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N15" s="7">
-        <v>0</v>
+        <v>4024</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C16" s="7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D16" s="7">
-        <v>6638</v>
+        <v>12426</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="H16" s="7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I16" s="7">
-        <v>3215</v>
+        <v>21750</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="M16" s="7">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="N16" s="7">
-        <v>9854</v>
+        <v>34176</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C17" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" s="7">
-        <v>3216</v>
+        <v>4591</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -2124,79 +2358,79 @@
         <v>1132</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="M17" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N17" s="7">
-        <v>4347</v>
+        <v>5723</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C18" s="7">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="D18" s="7">
-        <v>2565</v>
+        <v>36446</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="H18" s="7">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="I18" s="7">
-        <v>8607</v>
+        <v>24230</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="M18" s="7">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="N18" s="7">
-        <v>11172</v>
+        <v>60676</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2205,102 +2439,102 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>32</v>
+        <v>288</v>
       </c>
       <c r="D19" s="7">
-        <v>47595</v>
+        <v>406294</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="H19" s="7">
-        <v>61</v>
+        <v>407</v>
       </c>
       <c r="I19" s="7">
-        <v>66774</v>
+        <v>433081</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="M19" s="7">
-        <v>93</v>
+        <v>695</v>
       </c>
       <c r="N19" s="7">
-        <v>114369</v>
+        <v>839375</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>12</v>
+        <v>387</v>
       </c>
       <c r="D20" s="7">
-        <v>16387</v>
+        <v>389380</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="H20" s="7">
-        <v>62</v>
+        <v>644</v>
       </c>
       <c r="I20" s="7">
-        <v>43908</v>
+        <v>442787</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="M20" s="7">
-        <v>74</v>
+        <v>1031</v>
       </c>
       <c r="N20" s="7">
-        <v>60296</v>
+        <v>832167</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2309,70 +2543,70 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="D21" s="7">
-        <v>3557</v>
+        <v>56067</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="H21" s="7">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="I21" s="7">
-        <v>4310</v>
+        <v>24683</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="M21" s="7">
-        <v>8</v>
+        <v>84</v>
       </c>
       <c r="N21" s="7">
-        <v>7867</v>
+        <v>80751</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>2490</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>21</v>
+        <v>130</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -2381,232 +2615,232 @@
         <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N22" s="7">
-        <v>0</v>
+        <v>2490</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>21</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C23" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D23" s="7">
-        <v>0</v>
+        <v>3738</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="H23" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I23" s="7">
-        <v>943</v>
+        <v>5731</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="M23" s="7">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="N23" s="7">
-        <v>943</v>
+        <v>9469</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>21</v>
+        <v>140</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C24" s="7">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D24" s="7">
-        <v>0</v>
+        <v>24185</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>21</v>
+        <v>142</v>
       </c>
       <c r="F24" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="H24" s="7">
         <v>22</v>
       </c>
-      <c r="G24" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="H24" s="7">
-        <v>7</v>
-      </c>
       <c r="I24" s="7">
-        <v>5213</v>
+        <v>16134</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>122</v>
+        <v>145</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>123</v>
+        <v>146</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="M24" s="7">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="N24" s="7">
-        <v>5213</v>
+        <v>40319</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C25" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D25" s="7">
-        <v>2108</v>
+        <v>9358</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>21</v>
+        <v>151</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="H25" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I25" s="7">
-        <v>2125</v>
+        <v>3349</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>131</v>
+        <v>153</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>132</v>
+        <v>154</v>
       </c>
       <c r="M25" s="7">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="N25" s="7">
-        <v>4233</v>
+        <v>12707</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C26" s="7">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="D26" s="7">
-        <v>2160</v>
+        <v>65593</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>138</v>
+        <v>160</v>
       </c>
       <c r="H26" s="7">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="I26" s="7">
-        <v>8536</v>
+        <v>46466</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="M26" s="7">
-        <v>15</v>
+        <v>130</v>
       </c>
       <c r="N26" s="7">
-        <v>10695</v>
+        <v>112059</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>142</v>
+        <v>66</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2615,102 +2849,102 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>19</v>
+        <v>537</v>
       </c>
       <c r="D27" s="7">
-        <v>24212</v>
+        <v>550811</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="H27" s="7">
-        <v>91</v>
+        <v>779</v>
       </c>
       <c r="I27" s="7">
-        <v>65035</v>
+        <v>539151</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="M27" s="7">
-        <v>110</v>
+        <v>1316</v>
       </c>
       <c r="N27" s="7">
-        <v>89247</v>
+        <v>1089962</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>6</v>
+        <v>452</v>
       </c>
       <c r="D28" s="7">
-        <v>5524</v>
+        <v>457172</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="H28" s="7">
-        <v>76</v>
+        <v>774</v>
       </c>
       <c r="I28" s="7">
-        <v>47364</v>
+        <v>503856</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="M28" s="7">
-        <v>82</v>
+        <v>1226</v>
       </c>
       <c r="N28" s="7">
-        <v>52888</v>
+        <v>961029</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2719,304 +2953,304 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="D29" s="7">
-        <v>1876</v>
+        <v>47641</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>21</v>
+        <v>177</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="H29" s="7">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="I29" s="7">
-        <v>5214</v>
+        <v>31589</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>158</v>
+        <v>71</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="M29" s="7">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="N29" s="7">
-        <v>7089</v>
+        <v>79230</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>25</v>
+        <v>182</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>161</v>
+        <v>183</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D30" s="7">
-        <v>0</v>
+        <v>5266</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>21</v>
+        <v>184</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>22</v>
+        <v>185</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>162</v>
+        <v>186</v>
       </c>
       <c r="H30" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" s="7">
-        <v>0</v>
+        <v>737</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>21</v>
+        <v>187</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="M30" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N30" s="7">
-        <v>0</v>
+        <v>6003</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>21</v>
+        <v>130</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C31" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D31" s="7">
-        <v>0</v>
+        <v>59522</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>21</v>
+        <v>190</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>22</v>
+        <v>191</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>162</v>
+        <v>192</v>
       </c>
       <c r="H31" s="7">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="I31" s="7">
-        <v>2253</v>
+        <v>7480</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>167</v>
+        <v>193</v>
       </c>
       <c r="M31" s="7">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="N31" s="7">
-        <v>2253</v>
+        <v>67001</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>168</v>
+        <v>194</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>169</v>
+        <v>137</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C32" s="7">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="D32" s="7">
-        <v>808</v>
+        <v>28847</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>21</v>
+        <v>197</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>172</v>
+        <v>198</v>
       </c>
       <c r="H32" s="7">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="I32" s="7">
-        <v>1846</v>
+        <v>11414</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>173</v>
+        <v>199</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>131</v>
+        <v>94</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>174</v>
+        <v>200</v>
       </c>
       <c r="M32" s="7">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="N32" s="7">
-        <v>2654</v>
+        <v>40261</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>175</v>
+        <v>201</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>176</v>
+        <v>202</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>177</v>
+        <v>203</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C33" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D33" s="7">
-        <v>160</v>
+        <v>7490</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>178</v>
+        <v>204</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>21</v>
+        <v>205</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>179</v>
+        <v>206</v>
       </c>
       <c r="H33" s="7">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I33" s="7">
-        <v>5148</v>
+        <v>7380</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>180</v>
+        <v>207</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>182</v>
+        <v>209</v>
       </c>
       <c r="M33" s="7">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="N33" s="7">
-        <v>5308</v>
+        <v>14870</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C34" s="7">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="D34" s="7">
-        <v>0</v>
+        <v>93142</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>21</v>
+        <v>212</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>22</v>
+        <v>213</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>162</v>
+        <v>214</v>
       </c>
       <c r="H34" s="7">
-        <v>14</v>
+        <v>120</v>
       </c>
       <c r="I34" s="7">
-        <v>8515</v>
+        <v>76935</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>186</v>
+        <v>215</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>187</v>
+        <v>216</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>188</v>
+        <v>217</v>
       </c>
       <c r="M34" s="7">
-        <v>14</v>
+        <v>210</v>
       </c>
       <c r="N34" s="7">
-        <v>8515</v>
+        <v>170077</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>189</v>
+        <v>218</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>190</v>
+        <v>219</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>191</v>
+        <v>220</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3025,102 +3259,102 @@
         <v>3</v>
       </c>
       <c r="C35" s="7">
-        <v>9</v>
+        <v>640</v>
       </c>
       <c r="D35" s="7">
-        <v>8368</v>
+        <v>699079</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="H35" s="7">
-        <v>111</v>
+        <v>982</v>
       </c>
       <c r="I35" s="7">
-        <v>70339</v>
+        <v>639391</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="M35" s="7">
-        <v>120</v>
+        <v>1622</v>
       </c>
       <c r="N35" s="7">
-        <v>78706</v>
+        <v>1338471</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>192</v>
+        <v>221</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C36" s="7">
-        <v>1</v>
+        <v>455</v>
       </c>
       <c r="D36" s="7">
-        <v>159</v>
+        <v>414491</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>193</v>
+        <v>222</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>21</v>
+        <v>223</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>194</v>
+        <v>224</v>
       </c>
       <c r="H36" s="7">
-        <v>35</v>
+        <v>632</v>
       </c>
       <c r="I36" s="7">
-        <v>21216</v>
+        <v>369059</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>196</v>
+        <v>226</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>197</v>
+        <v>227</v>
       </c>
       <c r="M36" s="7">
-        <v>36</v>
+        <v>1087</v>
       </c>
       <c r="N36" s="7">
-        <v>21374</v>
+        <v>783550</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>198</v>
+        <v>228</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>199</v>
+        <v>229</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>200</v>
+        <v>230</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3129,304 +3363,304 @@
         <v>20</v>
       </c>
       <c r="C37" s="7">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="D37" s="7">
-        <v>885</v>
+        <v>44171</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>201</v>
+        <v>36</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>21</v>
+        <v>231</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>202</v>
+        <v>232</v>
       </c>
       <c r="H37" s="7">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="I37" s="7">
-        <v>650</v>
+        <v>21551</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>203</v>
+        <v>147</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>21</v>
+        <v>233</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>204</v>
+        <v>234</v>
       </c>
       <c r="M37" s="7">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="N37" s="7">
-        <v>1535</v>
+        <v>65722</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>205</v>
+        <v>103</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>21</v>
+        <v>235</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>206</v>
+        <v>236</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C38" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D38" s="7">
-        <v>0</v>
+        <v>3409</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>21</v>
+        <v>237</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>22</v>
+        <v>238</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>207</v>
+        <v>239</v>
       </c>
       <c r="H38" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I38" s="7">
-        <v>0</v>
+        <v>2252</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>22</v>
+        <v>238</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>208</v>
+        <v>240</v>
       </c>
       <c r="M38" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N38" s="7">
-        <v>0</v>
+        <v>5661</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>21</v>
+        <v>241</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>22</v>
+        <v>153</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>67</v>
+        <v>242</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="5" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C39" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D39" s="7">
-        <v>0</v>
+        <v>5591</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>22</v>
+        <v>243</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>207</v>
+        <v>244</v>
       </c>
       <c r="H39" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" s="7">
-        <v>0</v>
+        <v>811</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>21</v>
+        <v>245</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>22</v>
+        <v>246</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>208</v>
+        <v>247</v>
       </c>
       <c r="M39" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N39" s="7">
-        <v>0</v>
+        <v>6403</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>21</v>
+        <v>248</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>22</v>
+        <v>132</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>67</v>
+        <v>249</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40" s="7">
+        <v>33</v>
+      </c>
+      <c r="D40" s="7">
+        <v>27558</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="H40" s="7">
         <v>28</v>
       </c>
-      <c r="C40" s="7">
-        <v>0</v>
-      </c>
-      <c r="D40" s="7">
-        <v>0</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="H40" s="7">
-        <v>5</v>
-      </c>
       <c r="I40" s="7">
-        <v>2729</v>
+        <v>16359</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>209</v>
+        <v>252</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>210</v>
+        <v>253</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>211</v>
+        <v>150</v>
       </c>
       <c r="M40" s="7">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="N40" s="7">
-        <v>2729</v>
+        <v>43917</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>213</v>
+        <v>254</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>214</v>
+        <v>255</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C41" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D41" s="7">
-        <v>0</v>
+        <v>8469</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>21</v>
+        <v>256</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>22</v>
+        <v>248</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>207</v>
+        <v>257</v>
       </c>
       <c r="H41" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I41" s="7">
-        <v>568</v>
+        <v>1801</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>83</v>
+        <v>258</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>21</v>
+        <v>187</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>215</v>
+        <v>76</v>
       </c>
       <c r="M41" s="7">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="N41" s="7">
-        <v>568</v>
+        <v>10269</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>216</v>
+        <v>259</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>21</v>
+        <v>260</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>217</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C42" s="7">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="D42" s="7">
-        <v>1872</v>
+        <v>87963</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>218</v>
+        <v>261</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>219</v>
+        <v>262</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>220</v>
+        <v>263</v>
       </c>
       <c r="H42" s="7">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="I42" s="7">
-        <v>8484</v>
+        <v>60200</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>221</v>
+        <v>264</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>222</v>
+        <v>265</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>223</v>
+        <v>266</v>
       </c>
       <c r="M42" s="7">
-        <v>17</v>
+        <v>199</v>
       </c>
       <c r="N42" s="7">
-        <v>10356</v>
+        <v>148163</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>224</v>
+        <v>267</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>225</v>
+        <v>268</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>226</v>
+        <v>269</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3435,102 +3669,102 @@
         <v>3</v>
       </c>
       <c r="C43" s="7">
-        <v>5</v>
+        <v>654</v>
       </c>
       <c r="D43" s="7">
-        <v>2915</v>
+        <v>591651</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="H43" s="7">
-        <v>56</v>
+        <v>801</v>
       </c>
       <c r="I43" s="7">
-        <v>33647</v>
+        <v>472033</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="M43" s="7">
-        <v>61</v>
+        <v>1455</v>
       </c>
       <c r="N43" s="7">
-        <v>36562</v>
+        <v>1063684</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>227</v>
+        <v>270</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C44" s="7">
-        <v>0</v>
+        <v>660</v>
       </c>
       <c r="D44" s="7">
-        <v>0</v>
+        <v>448843</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>21</v>
+        <v>271</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>22</v>
+        <v>272</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>228</v>
+        <v>273</v>
       </c>
       <c r="H44" s="7">
-        <v>1</v>
+        <v>806</v>
       </c>
       <c r="I44" s="7">
-        <v>627</v>
+        <v>521256</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>220</v>
+        <v>274</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>229</v>
+        <v>275</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>47</v>
+        <v>276</v>
       </c>
       <c r="M44" s="7">
-        <v>1</v>
+        <v>1466</v>
       </c>
       <c r="N44" s="7">
-        <v>627</v>
+        <v>970098</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>230</v>
+        <v>277</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>21</v>
+        <v>278</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>220</v>
+        <v>279</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3539,304 +3773,304 @@
         <v>20</v>
       </c>
       <c r="C45" s="7">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="D45" s="7">
-        <v>0</v>
+        <v>83887</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>21</v>
+        <v>280</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>22</v>
+        <v>281</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>228</v>
+        <v>282</v>
       </c>
       <c r="H45" s="7">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="I45" s="7">
-        <v>0</v>
+        <v>14944</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>21</v>
+        <v>283</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>22</v>
+        <v>284</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>231</v>
+        <v>285</v>
       </c>
       <c r="M45" s="7">
-        <v>0</v>
+        <v>142</v>
       </c>
       <c r="N45" s="7">
-        <v>0</v>
+        <v>98830</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>21</v>
+        <v>286</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>232</v>
+        <v>287</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C46" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D46" s="7">
-        <v>0</v>
+        <v>4475</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>21</v>
+        <v>288</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>228</v>
+        <v>98</v>
       </c>
       <c r="H46" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I46" s="7">
-        <v>0</v>
+        <v>2396</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>21</v>
+        <v>289</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>22</v>
+        <v>290</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>231</v>
+        <v>134</v>
       </c>
       <c r="M46" s="7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="N46" s="7">
-        <v>0</v>
+        <v>6871</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>21</v>
+        <v>291</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>22</v>
+        <v>292</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>232</v>
+        <v>293</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="5" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C47" s="7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D47" s="7">
-        <v>0</v>
+        <v>11004</v>
       </c>
       <c r="E47" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="H47" s="7">
+        <v>6</v>
+      </c>
+      <c r="I47" s="7">
+        <v>5232</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="M47" s="7">
         <v>21</v>
       </c>
-      <c r="F47" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="H47" s="7">
-        <v>0</v>
-      </c>
-      <c r="I47" s="7">
-        <v>0</v>
-      </c>
-      <c r="J47" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K47" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L47" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="M47" s="7">
-        <v>0</v>
-      </c>
       <c r="N47" s="7">
-        <v>0</v>
+        <v>16236</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>21</v>
+        <v>298</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>232</v>
+        <v>299</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="5" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C48" s="7">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="D48" s="7">
-        <v>1360</v>
+        <v>26383</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>233</v>
+        <v>301</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="H48" s="7">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="I48" s="7">
-        <v>0</v>
+        <v>13382</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>21</v>
+        <v>302</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>22</v>
+        <v>137</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
       <c r="M48" s="7">
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="N48" s="7">
-        <v>1360</v>
+        <v>39765</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>234</v>
+        <v>303</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>220</v>
+        <v>304</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C49" s="7">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D49" s="7">
-        <v>0</v>
+        <v>13170</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>21</v>
+        <v>305</v>
       </c>
       <c r="F49" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="H49" s="7">
+        <v>3</v>
+      </c>
+      <c r="I49" s="7">
+        <v>1657</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="M49" s="7">
         <v>22</v>
       </c>
-      <c r="G49" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="H49" s="7">
-        <v>0</v>
-      </c>
-      <c r="I49" s="7">
-        <v>0</v>
-      </c>
-      <c r="J49" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K49" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L49" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="M49" s="7">
-        <v>0</v>
-      </c>
       <c r="N49" s="7">
-        <v>0</v>
+        <v>14827</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>21</v>
+        <v>210</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>22</v>
+        <v>310</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>232</v>
+        <v>311</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="5" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C50" s="7">
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="D50" s="7">
-        <v>0</v>
+        <v>102495</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>21</v>
+        <v>312</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>22</v>
+        <v>313</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>228</v>
+        <v>314</v>
       </c>
       <c r="H50" s="7">
-        <v>0</v>
+        <v>164</v>
       </c>
       <c r="I50" s="7">
-        <v>0</v>
+        <v>87419</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>21</v>
+        <v>315</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>231</v>
+        <v>316</v>
       </c>
       <c r="M50" s="7">
-        <v>0</v>
+        <v>319</v>
       </c>
       <c r="N50" s="7">
-        <v>0</v>
+        <v>189914</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>21</v>
+        <v>317</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>22</v>
+        <v>318</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>232</v>
+        <v>319</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -3845,49 +4079,49 @@
         <v>3</v>
       </c>
       <c r="C51" s="7">
-        <v>2</v>
+        <v>1016</v>
       </c>
       <c r="D51" s="7">
-        <v>1360</v>
+        <v>690257</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="H51" s="7">
-        <v>1</v>
+        <v>1036</v>
       </c>
       <c r="I51" s="7">
-        <v>627</v>
+        <v>646284</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="M51" s="7">
-        <v>3</v>
+        <v>2052</v>
       </c>
       <c r="N51" s="7">
-        <v>1987</v>
+        <v>1336540</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -3898,49 +4132,49 @@
         <v>10</v>
       </c>
       <c r="C52" s="7">
-        <v>52</v>
+        <v>2246</v>
       </c>
       <c r="D52" s="7">
-        <v>86105</v>
+        <v>2158205</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>235</v>
+        <v>320</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>236</v>
+        <v>321</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>237</v>
+        <v>322</v>
       </c>
       <c r="H52" s="7">
-        <v>238</v>
+        <v>3281</v>
       </c>
       <c r="I52" s="7">
-        <v>195204</v>
+        <v>2312421</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>238</v>
+        <v>323</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>239</v>
+        <v>324</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>240</v>
+        <v>325</v>
       </c>
       <c r="M52" s="7">
-        <v>290</v>
+        <v>5527</v>
       </c>
       <c r="N52" s="7">
-        <v>281309</v>
+        <v>4470626</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>241</v>
+        <v>326</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>242</v>
+        <v>327</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>243</v>
+        <v>328</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -3949,304 +4183,304 @@
         <v>20</v>
       </c>
       <c r="C53" s="7">
-        <v>6</v>
+        <v>279</v>
       </c>
       <c r="D53" s="7">
-        <v>8260</v>
+        <v>266561</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>244</v>
+        <v>329</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>245</v>
+        <v>330</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>246</v>
+        <v>331</v>
       </c>
       <c r="H53" s="7">
-        <v>15</v>
+        <v>151</v>
       </c>
       <c r="I53" s="7">
-        <v>12371</v>
+        <v>108695</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>247</v>
+        <v>332</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>245</v>
+        <v>333</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>248</v>
+        <v>334</v>
       </c>
       <c r="M53" s="7">
-        <v>21</v>
+        <v>430</v>
       </c>
       <c r="N53" s="7">
-        <v>20630</v>
+        <v>375255</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>249</v>
+        <v>335</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>250</v>
+        <v>336</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>251</v>
+        <v>337</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C54" s="7">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D54" s="7">
-        <v>1312</v>
+        <v>16952</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>252</v>
+        <v>338</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>21</v>
+        <v>243</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>253</v>
+        <v>139</v>
       </c>
       <c r="H54" s="7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I54" s="7">
-        <v>0</v>
+        <v>6550</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>21</v>
+        <v>133</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>22</v>
+        <v>187</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>254</v>
+        <v>140</v>
       </c>
       <c r="M54" s="7">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="N54" s="7">
-        <v>1312</v>
+        <v>23501</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>255</v>
+        <v>339</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>256</v>
+        <v>340</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="5" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C55" s="7">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="D55" s="7">
-        <v>0</v>
+        <v>83116</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>21</v>
+        <v>341</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>22</v>
+        <v>293</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>257</v>
+        <v>342</v>
       </c>
       <c r="H55" s="7">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="I55" s="7">
-        <v>3196</v>
+        <v>20017</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>258</v>
+        <v>343</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>259</v>
+        <v>130</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>260</v>
+        <v>344</v>
       </c>
       <c r="M55" s="7">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="N55" s="7">
-        <v>3196</v>
+        <v>103133</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>261</v>
+        <v>345</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>262</v>
+        <v>79</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>263</v>
+        <v>346</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="5" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C56" s="7">
-        <v>11</v>
+        <v>145</v>
       </c>
       <c r="D56" s="7">
-        <v>12008</v>
+        <v>122600</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>264</v>
+        <v>347</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>265</v>
+        <v>348</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>266</v>
+        <v>349</v>
       </c>
       <c r="H56" s="7">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="I56" s="7">
-        <v>16656</v>
+        <v>82692</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>267</v>
+        <v>350</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>268</v>
+        <v>351</v>
       </c>
       <c r="M56" s="7">
-        <v>31</v>
+        <v>250</v>
       </c>
       <c r="N56" s="7">
-        <v>28664</v>
+        <v>205292</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>269</v>
+        <v>352</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>270</v>
+        <v>303</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>271</v>
+        <v>353</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C57" s="7">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="D57" s="7">
-        <v>5483</v>
+        <v>43077</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>272</v>
+        <v>22</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>273</v>
+        <v>354</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>274</v>
+        <v>355</v>
       </c>
       <c r="H57" s="7">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="I57" s="7">
-        <v>8973</v>
+        <v>15319</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>275</v>
+        <v>356</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>276</v>
+        <v>243</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>277</v>
+        <v>247</v>
       </c>
       <c r="M57" s="7">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="N57" s="7">
-        <v>14456</v>
+        <v>58396</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>278</v>
+        <v>357</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>279</v>
+        <v>358</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>280</v>
+        <v>359</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="5" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C58" s="7">
-        <v>11</v>
+        <v>441</v>
       </c>
       <c r="D58" s="7">
-        <v>13771</v>
+        <v>394510</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>281</v>
+        <v>360</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>282</v>
+        <v>361</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>283</v>
+        <v>362</v>
       </c>
       <c r="H58" s="7">
-        <v>59</v>
+        <v>489</v>
       </c>
       <c r="I58" s="7">
-        <v>50472</v>
+        <v>312668</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>284</v>
+        <v>363</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>285</v>
+        <v>50</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>286</v>
+        <v>364</v>
       </c>
       <c r="M58" s="7">
-        <v>70</v>
+        <v>930</v>
       </c>
       <c r="N58" s="7">
-        <v>64243</v>
+        <v>707178</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>287</v>
+        <v>365</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>288</v>
+        <v>366</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>289</v>
+        <v>367</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -4255,54 +4489,54 @@
         <v>3</v>
       </c>
       <c r="C59" s="7">
-        <v>85</v>
+        <v>3210</v>
       </c>
       <c r="D59" s="7">
-        <v>126939</v>
+        <v>3085020</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="H59" s="7">
-        <v>350</v>
+        <v>4089</v>
       </c>
       <c r="I59" s="7">
-        <v>286871</v>
+        <v>2858361</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="M59" s="7">
-        <v>435</v>
+        <v>7299</v>
       </c>
       <c r="N59" s="7">
-        <v>413810</v>
+        <v>5943381</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>290</v>
+        <v>368</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P78C_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P78C_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D89A126-014A-47CC-A4FB-18156ED9D59F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9924B324-3602-4B97-A931-1324EFBA7701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{43FEE5FD-1C47-474F-92FB-F4F27C2E0407}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{C703C65C-FF39-4DD0-B48D-9B7ED44E790A}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="406">
   <si>
     <t>Población según la categoría profesional que tiene o tenía en la empresa donde trabaja o trabajaba la persona sustentadora principal en 2023 (Tasa respuesta: 83,48%)</t>
   </si>
@@ -65,49 +65,49 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>TRABAJADOR POR CUENTA AJENA Otro asalariado</t>
   </si>
   <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>75,91%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>83,59%</t>
-  </si>
-  <si>
-    <t>72,97%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>77,76%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>72,86%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>73,84%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>84,68%</t>
+  </si>
+  <si>
+    <t>76,48%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
   </si>
   <si>
     <t>TRABAJADOR POR CUENTA AJENA Capataz, supervisor o encargado</t>
   </si>
   <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -119,1027 +119,1138 @@
     <t>2,25%</t>
   </si>
   <si>
-    <t>2,94%</t>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>TRABAJADOR POR CUENTA AJENA Gerente de una empresa con menos de 10 asalariados</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>TRABAJADOR POR CUENTA AJENA Gerente de una empresa con 10 o más asalariados</t>
+  </si>
+  <si>
+    <t>TRABAJADOR O EMPRESARIO POR CUENTA PROPIA Con menos de 10 asalariados</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>TRABAJADOR O EMPRESARIO POR CUENTA PROPIA Con 10 o más asalariados</t>
+  </si>
+  <si>
+    <t>TRABAJADOR O EMPRESARIO POR CUENTA PROPIA Sin asalariados</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>80,22%</t>
+  </si>
+  <si>
+    <t>74,64%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>74,9%</t>
+  </si>
+  <si>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>55,86%</t>
+  </si>
+  <si>
+    <t>85,35%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>53,44%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>71,36%</t>
+  </si>
+  <si>
+    <t>67,02%</t>
+  </si>
+  <si>
+    <t>75,28%</t>
+  </si>
+  <si>
+    <t>82,47%</t>
+  </si>
+  <si>
+    <t>79,63%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
+  </si>
+  <si>
+    <t>76,77%</t>
+  </si>
+  <si>
+    <t>74,42%</t>
+  </si>
+  <si>
+    <t>79,42%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>51,15%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>72,38%</t>
+  </si>
+  <si>
+    <t>79,96%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>63,13%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
+  </si>
+  <si>
+    <t>76,26%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>66,75%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>49,43%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>70,6%</t>
+  </si>
+  <si>
+    <t>67,0%</t>
+  </si>
+  <si>
+    <t>74,38%</t>
+  </si>
+  <si>
+    <t>78,44%</t>
+  </si>
+  <si>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>81,0%</t>
+  </si>
+  <si>
+    <t>74,05%</t>
+  </si>
+  <si>
+    <t>76,31%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>66,73%</t>
+  </si>
+  <si>
+    <t>62,26%</t>
+  </si>
+  <si>
+    <t>70,1%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>77,82%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>78,65%</t>
+  </si>
+  <si>
+    <t>70,84%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
   </si>
   <si>
     <t>0,72%</t>
   </si>
   <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>TRABAJADOR POR CUENTA AJENA Gerente de una empresa con menos de 10 asalariados</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>TRABAJADOR POR CUENTA AJENA Gerente de una empresa con 10 o más asalariados</t>
-  </si>
-  <si>
-    <t>TRABAJADOR O EMPRESARIO POR CUENTA PROPIA Con menos de 10 asalariados</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
   </si>
   <si>
     <t>2,49%</t>
   </si>
   <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>TRABAJADOR O EMPRESARIO POR CUENTA PROPIA Con 10 o más asalariados</t>
-  </si>
-  <si>
-    <t>TRABAJADOR O EMPRESARIO POR CUENTA PROPIA Sin asalariados</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>79,14%</t>
-  </si>
-  <si>
-    <t>73,5%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>74,23%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>82,16%</t>
-  </si>
-  <si>
-    <t>76,57%</t>
-  </si>
-  <si>
-    <t>85,46%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>62,94%</t>
+  </si>
+  <si>
+    <t>58,25%</t>
+  </si>
+  <si>
+    <t>67,64%</t>
+  </si>
+  <si>
+    <t>75,33%</t>
+  </si>
+  <si>
+    <t>70,59%</t>
+  </si>
+  <si>
+    <t>79,68%</t>
+  </si>
+  <si>
+    <t>68,29%</t>
+  </si>
+  <si>
+    <t>65,11%</t>
+  </si>
+  <si>
+    <t>71,28%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
   </si>
   <si>
     <t>3,68%</t>
   </si>
   <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
   </si>
   <si>
     <t>3,53%</t>
   </si>
   <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
   </si>
   <si>
     <t>0,95%</t>
   </si>
   <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
     <t>0,68%</t>
   </si>
   <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>70,69%</t>
-  </si>
-  <si>
-    <t>66,23%</t>
-  </si>
-  <si>
-    <t>74,6%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>79,3%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
-  </si>
-  <si>
-    <t>76,35%</t>
-  </si>
-  <si>
-    <t>73,91%</t>
-  </si>
-  <si>
-    <t>78,96%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>66,22%</t>
+  </si>
+  <si>
+    <t>49,56%</t>
+  </si>
+  <si>
+    <t>72,25%</t>
+  </si>
+  <si>
+    <t>80,49%</t>
+  </si>
+  <si>
+    <t>73,88%</t>
+  </si>
+  <si>
+    <t>72,95%</t>
+  </si>
+  <si>
+    <t>63,02%</t>
+  </si>
+  <si>
+    <t>76,95%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
   </si>
   <si>
     <t>6,06%</t>
   </si>
   <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
   </si>
   <si>
     <t>11,91%</t>
   </si>
   <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>65,4%</t>
-  </si>
-  <si>
-    <t>50,68%</t>
-  </si>
-  <si>
-    <t>71,81%</t>
-  </si>
-  <si>
-    <t>78,8%</t>
-  </si>
-  <si>
-    <t>76,1%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>71,8%</t>
-  </si>
-  <si>
-    <t>62,09%</t>
-  </si>
-  <si>
-    <t>75,38%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>70,06%</t>
-  </si>
-  <si>
-    <t>66,39%</t>
-  </si>
-  <si>
-    <t>73,81%</t>
-  </si>
-  <si>
-    <t>78,18%</t>
-  </si>
-  <si>
-    <t>75,01%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
-  </si>
-  <si>
-    <t>73,66%</t>
-  </si>
-  <si>
-    <t>70,93%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>65,03%</t>
-  </si>
-  <si>
-    <t>62,17%</t>
-  </si>
-  <si>
-    <t>67,86%</t>
-  </si>
-  <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>75,92%</t>
-  </si>
-  <si>
-    <t>88,2%</t>
-  </si>
-  <si>
-    <t>72,58%</t>
-  </si>
-  <si>
-    <t>69,34%</t>
-  </si>
-  <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>69,96%</t>
-  </si>
-  <si>
-    <t>65,13%</t>
-  </si>
-  <si>
-    <t>71,92%</t>
-  </si>
-  <si>
-    <t>80,9%</t>
-  </si>
-  <si>
-    <t>78,92%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>75,22%</t>
-  </si>
-  <si>
-    <t>73,15%</t>
-  </si>
-  <si>
-    <t>76,91%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
   </si>
   <si>
     <t>11,58%</t>
   </si>
   <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1554,8 +1665,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75CCE33E-1014-4B8F-91B2-AAFBB1210776}">
-  <dimension ref="A1:Q60"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A71F8D6B-11DC-454C-A66D-80E0A5066671}">
+  <dimension ref="A1:Q68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1675,7 +1786,7 @@
         <v>65</v>
       </c>
       <c r="D4" s="7">
-        <v>126771</v>
+        <v>134268</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1690,7 +1801,7 @@
         <v>70</v>
       </c>
       <c r="I4" s="7">
-        <v>107351</v>
+        <v>98029</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1705,7 +1816,7 @@
         <v>135</v>
       </c>
       <c r="N4" s="7">
-        <v>234122</v>
+        <v>232297</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1726,7 +1837,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="7">
-        <v>8084</v>
+        <v>8322</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1756,7 +1867,7 @@
         <v>3</v>
       </c>
       <c r="N5" s="7">
-        <v>8084</v>
+        <v>8322</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1879,7 +1990,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="7">
-        <v>3201</v>
+        <v>3303</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>35</v>
@@ -1894,7 +2005,7 @@
         <v>2</v>
       </c>
       <c r="I8" s="7">
-        <v>3653</v>
+        <v>2770</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>37</v>
@@ -1909,7 +2020,7 @@
         <v>4</v>
       </c>
       <c r="N8" s="7">
-        <v>6854</v>
+        <v>6073</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>39</v>
@@ -1981,7 +2092,7 @@
         <v>5</v>
       </c>
       <c r="D10" s="7">
-        <v>8872</v>
+        <v>11864</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>44</v>
@@ -1996,7 +2107,7 @@
         <v>12</v>
       </c>
       <c r="I10" s="7">
-        <v>17417</v>
+        <v>15777</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>47</v>
@@ -2011,7 +2122,7 @@
         <v>17</v>
       </c>
       <c r="N10" s="7">
-        <v>26289</v>
+        <v>27641</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>50</v>
@@ -2032,7 +2143,7 @@
         <v>75</v>
       </c>
       <c r="D11" s="7">
-        <v>146928</v>
+        <v>157757</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>53</v>
@@ -2047,7 +2158,7 @@
         <v>84</v>
       </c>
       <c r="I11" s="7">
-        <v>128421</v>
+        <v>116576</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>53</v>
@@ -2062,7 +2173,7 @@
         <v>159</v>
       </c>
       <c r="N11" s="7">
-        <v>275349</v>
+        <v>274333</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>53</v>
@@ -2085,7 +2196,7 @@
         <v>227</v>
       </c>
       <c r="D12" s="7">
-        <v>321547</v>
+        <v>323122</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>55</v>
@@ -2100,7 +2211,7 @@
         <v>355</v>
       </c>
       <c r="I12" s="7">
-        <v>368113</v>
+        <v>339680</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>58</v>
@@ -2115,7 +2226,7 @@
         <v>582</v>
       </c>
       <c r="N12" s="7">
-        <v>689660</v>
+        <v>662802</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>61</v>
@@ -2136,7 +2247,7 @@
         <v>18</v>
       </c>
       <c r="D13" s="7">
-        <v>26712</v>
+        <v>24353</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>64</v>
@@ -2151,31 +2262,31 @@
         <v>15</v>
       </c>
       <c r="I13" s="7">
-        <v>15928</v>
+        <v>13747</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="M13" s="7">
         <v>33</v>
       </c>
       <c r="N13" s="7">
-        <v>42640</v>
+        <v>38101</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2187,46 +2298,46 @@
         <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>1312</v>
+        <v>1134</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
       </c>
       <c r="I14" s="7">
-        <v>1164</v>
+        <v>1045</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
       </c>
       <c r="N14" s="7">
-        <v>2476</v>
+        <v>2179</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>24</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2238,46 +2349,46 @@
         <v>1</v>
       </c>
       <c r="D15" s="7">
-        <v>3261</v>
+        <v>3093</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H15" s="7">
         <v>1</v>
       </c>
       <c r="I15" s="7">
-        <v>763</v>
+        <v>675</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M15" s="7">
         <v>2</v>
       </c>
       <c r="N15" s="7">
-        <v>4024</v>
+        <v>3767</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>24</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2289,46 +2400,46 @@
         <v>10</v>
       </c>
       <c r="D16" s="7">
-        <v>12426</v>
+        <v>12737</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
       </c>
       <c r="I16" s="7">
-        <v>21750</v>
+        <v>75335</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="M16" s="7">
         <v>17</v>
       </c>
       <c r="N16" s="7">
-        <v>34176</v>
+        <v>88072</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2340,46 +2451,46 @@
         <v>3</v>
       </c>
       <c r="D17" s="7">
-        <v>4591</v>
+        <v>3916</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
       </c>
       <c r="I17" s="7">
-        <v>1132</v>
+        <v>1066</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M17" s="7">
         <v>4</v>
       </c>
       <c r="N17" s="7">
-        <v>5723</v>
+        <v>4982</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2391,46 +2502,46 @@
         <v>28</v>
       </c>
       <c r="D18" s="7">
-        <v>36446</v>
+        <v>34422</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="H18" s="7">
         <v>27</v>
       </c>
       <c r="I18" s="7">
-        <v>24230</v>
+        <v>21941</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="M18" s="7">
         <v>55</v>
       </c>
       <c r="N18" s="7">
-        <v>60676</v>
+        <v>56362</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2442,7 +2553,7 @@
         <v>288</v>
       </c>
       <c r="D19" s="7">
-        <v>406294</v>
+        <v>402776</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>53</v>
@@ -2457,7 +2568,7 @@
         <v>407</v>
       </c>
       <c r="I19" s="7">
-        <v>433081</v>
+        <v>453489</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>53</v>
@@ -2472,7 +2583,7 @@
         <v>695</v>
       </c>
       <c r="N19" s="7">
-        <v>839375</v>
+        <v>856265</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>53</v>
@@ -2486,7 +2597,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2495,46 +2606,46 @@
         <v>387</v>
       </c>
       <c r="D20" s="7">
-        <v>389380</v>
+        <v>378092</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="H20" s="7">
         <v>644</v>
       </c>
       <c r="I20" s="7">
-        <v>442787</v>
+        <v>414456</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="M20" s="7">
         <v>1031</v>
       </c>
       <c r="N20" s="7">
-        <v>832167</v>
+        <v>792549</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2546,46 +2657,46 @@
         <v>51</v>
       </c>
       <c r="D21" s="7">
-        <v>56067</v>
+        <v>51602</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="H21" s="7">
         <v>33</v>
       </c>
       <c r="I21" s="7">
-        <v>24683</v>
+        <v>22058</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="M21" s="7">
         <v>84</v>
       </c>
       <c r="N21" s="7">
-        <v>80751</v>
+        <v>73660</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2597,16 +2708,16 @@
         <v>2</v>
       </c>
       <c r="D22" s="7">
-        <v>2490</v>
+        <v>2303</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -2621,22 +2732,22 @@
         <v>25</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>132</v>
+        <v>75</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
       </c>
       <c r="N22" s="7">
-        <v>2490</v>
+        <v>2303</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>24</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>134</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2648,46 +2759,46 @@
         <v>3</v>
       </c>
       <c r="D23" s="7">
-        <v>3738</v>
+        <v>3299</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H23" s="7">
         <v>8</v>
       </c>
       <c r="I23" s="7">
-        <v>5731</v>
+        <v>5017</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="M23" s="7">
         <v>11</v>
       </c>
       <c r="N23" s="7">
-        <v>9469</v>
+        <v>8316</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>141</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2699,46 +2810,46 @@
         <v>24</v>
       </c>
       <c r="D24" s="7">
-        <v>24185</v>
+        <v>22914</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>143</v>
+        <v>94</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="H24" s="7">
         <v>22</v>
       </c>
       <c r="I24" s="7">
-        <v>16134</v>
+        <v>14869</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>146</v>
+        <v>90</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M24" s="7">
         <v>46</v>
       </c>
       <c r="N24" s="7">
-        <v>40319</v>
+        <v>37784</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2750,46 +2861,46 @@
         <v>7</v>
       </c>
       <c r="D25" s="7">
-        <v>9358</v>
+        <v>8747</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>101</v>
+        <v>145</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="H25" s="7">
         <v>5</v>
       </c>
       <c r="I25" s="7">
-        <v>3349</v>
+        <v>3115</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>40</v>
+        <v>131</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="M25" s="7">
         <v>12</v>
       </c>
       <c r="N25" s="7">
-        <v>12707</v>
+        <v>11862</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2801,46 +2912,46 @@
         <v>63</v>
       </c>
       <c r="D26" s="7">
-        <v>65593</v>
+        <v>62909</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="H26" s="7">
         <v>67</v>
       </c>
       <c r="I26" s="7">
-        <v>46466</v>
+        <v>43045</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="M26" s="7">
         <v>130</v>
       </c>
       <c r="N26" s="7">
-        <v>112059</v>
+        <v>105955</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>66</v>
+        <v>156</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2852,7 +2963,7 @@
         <v>537</v>
       </c>
       <c r="D27" s="7">
-        <v>550811</v>
+        <v>529866</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>53</v>
@@ -2867,7 +2978,7 @@
         <v>779</v>
       </c>
       <c r="I27" s="7">
-        <v>539151</v>
+        <v>502561</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>53</v>
@@ -2882,7 +2993,7 @@
         <v>1316</v>
       </c>
       <c r="N27" s="7">
-        <v>1089962</v>
+        <v>1032428</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>53</v>
@@ -2896,7 +3007,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2905,46 +3016,46 @@
         <v>452</v>
       </c>
       <c r="D28" s="7">
-        <v>457172</v>
+        <v>442144</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="H28" s="7">
         <v>774</v>
       </c>
       <c r="I28" s="7">
-        <v>503856</v>
+        <v>491962</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="M28" s="7">
         <v>1226</v>
       </c>
       <c r="N28" s="7">
-        <v>961029</v>
+        <v>934106</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2956,46 +3067,46 @@
         <v>44</v>
       </c>
       <c r="D29" s="7">
-        <v>47641</v>
+        <v>42532</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="H29" s="7">
         <v>44</v>
       </c>
       <c r="I29" s="7">
-        <v>31589</v>
+        <v>27797</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>71</v>
+        <v>172</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="M29" s="7">
         <v>88</v>
       </c>
       <c r="N29" s="7">
-        <v>79230</v>
+        <v>70329</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3007,46 +3118,46 @@
         <v>5</v>
       </c>
       <c r="D30" s="7">
-        <v>5266</v>
+        <v>4934</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="H30" s="7">
         <v>1</v>
       </c>
       <c r="I30" s="7">
-        <v>737</v>
+        <v>683</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>188</v>
+        <v>28</v>
       </c>
       <c r="M30" s="7">
         <v>6</v>
       </c>
       <c r="N30" s="7">
-        <v>6003</v>
+        <v>5617</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>130</v>
+        <v>181</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>100</v>
+        <v>182</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3058,46 +3169,46 @@
         <v>8</v>
       </c>
       <c r="D31" s="7">
-        <v>59522</v>
+        <v>251983</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="H31" s="7">
         <v>11</v>
       </c>
       <c r="I31" s="7">
-        <v>7480</v>
+        <v>6760</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="M31" s="7">
         <v>19</v>
       </c>
       <c r="N31" s="7">
-        <v>67001</v>
+        <v>258743</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>137</v>
+        <v>190</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3109,46 +3220,46 @@
         <v>31</v>
       </c>
       <c r="D32" s="7">
-        <v>28847</v>
+        <v>27681</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="H32" s="7">
         <v>20</v>
       </c>
       <c r="I32" s="7">
-        <v>11414</v>
+        <v>10914</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>94</v>
+        <v>196</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="M32" s="7">
         <v>51</v>
       </c>
       <c r="N32" s="7">
-        <v>40261</v>
+        <v>38595</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3160,46 +3271,46 @@
         <v>10</v>
       </c>
       <c r="D33" s="7">
-        <v>7490</v>
+        <v>7436</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>204</v>
+        <v>76</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="H33" s="7">
         <v>12</v>
       </c>
       <c r="I33" s="7">
-        <v>7380</v>
+        <v>6896</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>208</v>
+        <v>97</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>209</v>
+        <v>45</v>
       </c>
       <c r="M33" s="7">
         <v>22</v>
       </c>
       <c r="N33" s="7">
-        <v>14870</v>
+        <v>14332</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>210</v>
+        <v>92</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>211</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3211,46 +3322,46 @@
         <v>90</v>
       </c>
       <c r="D34" s="7">
-        <v>93142</v>
+        <v>87748</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="H34" s="7">
         <v>120</v>
       </c>
       <c r="I34" s="7">
-        <v>76935</v>
+        <v>70245</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="M34" s="7">
         <v>210</v>
       </c>
       <c r="N34" s="7">
-        <v>170077</v>
+        <v>157993</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3262,7 +3373,7 @@
         <v>640</v>
       </c>
       <c r="D35" s="7">
-        <v>699079</v>
+        <v>864458</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>53</v>
@@ -3277,7 +3388,7 @@
         <v>982</v>
       </c>
       <c r="I35" s="7">
-        <v>639391</v>
+        <v>615257</v>
       </c>
       <c r="J35" s="7" t="s">
         <v>53</v>
@@ -3292,7 +3403,7 @@
         <v>1622</v>
       </c>
       <c r="N35" s="7">
-        <v>1338471</v>
+        <v>1479716</v>
       </c>
       <c r="O35" s="7" t="s">
         <v>53</v>
@@ -3306,7 +3417,7 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>10</v>
@@ -3315,46 +3426,46 @@
         <v>455</v>
       </c>
       <c r="D36" s="7">
-        <v>414491</v>
+        <v>390530</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="H36" s="7">
         <v>632</v>
       </c>
       <c r="I36" s="7">
-        <v>369059</v>
+        <v>340999</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="M36" s="7">
         <v>1087</v>
       </c>
       <c r="N36" s="7">
-        <v>783550</v>
+        <v>731530</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>229</v>
+        <v>110</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3366,46 +3477,46 @@
         <v>47</v>
       </c>
       <c r="D37" s="7">
-        <v>44171</v>
+        <v>39685</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>36</v>
+        <v>223</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="H37" s="7">
         <v>33</v>
       </c>
       <c r="I37" s="7">
-        <v>21551</v>
+        <v>19062</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>147</v>
+        <v>226</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="M37" s="7">
         <v>80</v>
       </c>
       <c r="N37" s="7">
-        <v>65722</v>
+        <v>58746</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>103</v>
+        <v>229</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3417,46 +3528,46 @@
         <v>4</v>
       </c>
       <c r="D38" s="7">
-        <v>3409</v>
+        <v>3246</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>237</v>
+        <v>40</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>238</v>
+        <v>79</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="H38" s="7">
         <v>4</v>
       </c>
       <c r="I38" s="7">
-        <v>2252</v>
+        <v>2005</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>83</v>
+        <v>233</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>238</v>
+        <v>98</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="M38" s="7">
         <v>8</v>
       </c>
       <c r="N38" s="7">
-        <v>5661</v>
+        <v>5251</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>153</v>
+        <v>201</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3468,46 +3579,46 @@
         <v>7</v>
       </c>
       <c r="D39" s="7">
-        <v>5591</v>
+        <v>5335</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>82</v>
+        <v>190</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="H39" s="7">
         <v>2</v>
       </c>
       <c r="I39" s="7">
-        <v>811</v>
+        <v>762</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>245</v>
+        <v>132</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>247</v>
+        <v>136</v>
       </c>
       <c r="M39" s="7">
         <v>9</v>
       </c>
       <c r="N39" s="7">
-        <v>6403</v>
+        <v>6097</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>248</v>
+        <v>131</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>132</v>
+        <v>240</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>249</v>
+        <v>193</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3519,46 +3630,46 @@
         <v>33</v>
       </c>
       <c r="D40" s="7">
-        <v>27558</v>
+        <v>25277</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>96</v>
+        <v>242</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="H40" s="7">
         <v>28</v>
       </c>
       <c r="I40" s="7">
-        <v>16359</v>
+        <v>15110</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="M40" s="7">
         <v>61</v>
       </c>
       <c r="N40" s="7">
-        <v>43917</v>
+        <v>40387</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>196</v>
+        <v>246</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3570,46 +3681,46 @@
         <v>8</v>
       </c>
       <c r="D41" s="7">
-        <v>8469</v>
+        <v>7799</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>248</v>
+        <v>40</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>257</v>
+        <v>143</v>
       </c>
       <c r="H41" s="7">
         <v>3</v>
       </c>
       <c r="I41" s="7">
-        <v>1801</v>
+        <v>1707</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="M41" s="7">
         <v>11</v>
       </c>
       <c r="N41" s="7">
-        <v>10269</v>
+        <v>9507</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>259</v>
+        <v>190</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>74</v>
+        <v>252</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3621,46 +3732,46 @@
         <v>100</v>
       </c>
       <c r="D42" s="7">
-        <v>87963</v>
+        <v>81287</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="H42" s="7">
         <v>99</v>
       </c>
       <c r="I42" s="7">
-        <v>60200</v>
+        <v>55063</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="M42" s="7">
         <v>199</v>
       </c>
       <c r="N42" s="7">
-        <v>148163</v>
+        <v>136351</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3672,7 +3783,7 @@
         <v>654</v>
       </c>
       <c r="D43" s="7">
-        <v>591651</v>
+        <v>553160</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>53</v>
@@ -3687,7 +3798,7 @@
         <v>801</v>
       </c>
       <c r="I43" s="7">
-        <v>472033</v>
+        <v>434707</v>
       </c>
       <c r="J43" s="7" t="s">
         <v>53</v>
@@ -3702,7 +3813,7 @@
         <v>1455</v>
       </c>
       <c r="N43" s="7">
-        <v>1063684</v>
+        <v>987868</v>
       </c>
       <c r="O43" s="7" t="s">
         <v>53</v>
@@ -3716,55 +3827,55 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C44" s="7">
-        <v>660</v>
+        <v>374</v>
       </c>
       <c r="D44" s="7">
-        <v>448843</v>
+        <v>242220</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="H44" s="7">
+        <v>446</v>
+      </c>
+      <c r="I44" s="7">
+        <v>420086</v>
+      </c>
+      <c r="J44" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="L44" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="M44" s="7">
+        <v>820</v>
+      </c>
+      <c r="N44" s="7">
+        <v>662305</v>
+      </c>
+      <c r="O44" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="P44" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q44" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="H44" s="7">
-        <v>806</v>
-      </c>
-      <c r="I44" s="7">
-        <v>521256</v>
-      </c>
-      <c r="J44" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="K44" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="M44" s="7">
-        <v>1466</v>
-      </c>
-      <c r="N44" s="7">
-        <v>970098</v>
-      </c>
-      <c r="O44" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="P44" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3773,49 +3884,49 @@
         <v>20</v>
       </c>
       <c r="C45" s="7">
-        <v>116</v>
+        <v>61</v>
       </c>
       <c r="D45" s="7">
-        <v>83887</v>
+        <v>40464</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="H45" s="7">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I45" s="7">
-        <v>14944</v>
+        <v>7164</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>283</v>
+        <v>199</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>284</v>
+        <v>181</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="M45" s="7">
-        <v>142</v>
+        <v>76</v>
       </c>
       <c r="N45" s="7">
-        <v>98830</v>
+        <v>47628</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>105</v>
+        <v>277</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3824,49 +3935,49 @@
         <v>30</v>
       </c>
       <c r="C46" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D46" s="7">
-        <v>4475</v>
+        <v>2612</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>97</v>
+        <v>280</v>
       </c>
       <c r="G46" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="H46" s="7">
+        <v>3</v>
+      </c>
+      <c r="I46" s="7">
+        <v>1449</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="M46" s="7">
+        <v>7</v>
+      </c>
+      <c r="N46" s="7">
+        <v>4061</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="P46" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="H46" s="7">
-        <v>5</v>
-      </c>
-      <c r="I46" s="7">
-        <v>2396</v>
-      </c>
-      <c r="J46" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="K46" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="L46" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="M46" s="7">
-        <v>11</v>
-      </c>
-      <c r="N46" s="7">
-        <v>6871</v>
-      </c>
-      <c r="O46" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="P46" s="7" t="s">
-        <v>292</v>
-      </c>
       <c r="Q46" s="7" t="s">
-        <v>293</v>
+        <v>236</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3875,49 +3986,49 @@
         <v>33</v>
       </c>
       <c r="C47" s="7">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D47" s="7">
-        <v>11004</v>
+        <v>5120</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>294</v>
+        <v>249</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>295</v>
+        <v>97</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="H47" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I47" s="7">
-        <v>5232</v>
+        <v>1890</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>292</v>
+        <v>24</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>297</v>
+        <v>203</v>
       </c>
       <c r="M47" s="7">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="N47" s="7">
-        <v>16236</v>
+        <v>7010</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>28</v>
+        <v>287</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3926,49 +4037,49 @@
         <v>34</v>
       </c>
       <c r="C48" s="7">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="D48" s="7">
-        <v>26383</v>
+        <v>14062</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>88</v>
+        <v>291</v>
       </c>
       <c r="H48" s="7">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="I48" s="7">
-        <v>13382</v>
+        <v>5360</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>302</v>
+        <v>203</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>254</v>
+        <v>292</v>
       </c>
       <c r="M48" s="7">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="N48" s="7">
-        <v>39765</v>
+        <v>19422</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>68</v>
+        <v>294</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -3977,49 +4088,49 @@
         <v>42</v>
       </c>
       <c r="C49" s="7">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D49" s="7">
-        <v>13170</v>
+        <v>6508</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>306</v>
+        <v>185</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="H49" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I49" s="7">
-        <v>1657</v>
+        <v>0</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>97</v>
+        <v>24</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>308</v>
+        <v>25</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="M49" s="7">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="N49" s="7">
-        <v>14827</v>
+        <v>6508</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>210</v>
+        <v>77</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>310</v>
+        <v>72</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -4028,49 +4139,49 @@
         <v>43</v>
       </c>
       <c r="C50" s="7">
-        <v>155</v>
+        <v>80</v>
       </c>
       <c r="D50" s="7">
-        <v>102495</v>
+        <v>51980</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="H50" s="7">
-        <v>164</v>
+        <v>88</v>
       </c>
       <c r="I50" s="7">
-        <v>87419</v>
+        <v>43143</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>48</v>
+        <v>304</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="M50" s="7">
-        <v>319</v>
+        <v>168</v>
       </c>
       <c r="N50" s="7">
-        <v>189914</v>
+        <v>95123</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4079,10 +4190,10 @@
         <v>3</v>
       </c>
       <c r="C51" s="7">
-        <v>1016</v>
+        <v>561</v>
       </c>
       <c r="D51" s="7">
-        <v>690257</v>
+        <v>362966</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>53</v>
@@ -4094,10 +4205,10 @@
         <v>53</v>
       </c>
       <c r="H51" s="7">
-        <v>1036</v>
+        <v>569</v>
       </c>
       <c r="I51" s="7">
-        <v>646284</v>
+        <v>479092</v>
       </c>
       <c r="J51" s="7" t="s">
         <v>53</v>
@@ -4109,10 +4220,10 @@
         <v>53</v>
       </c>
       <c r="M51" s="7">
-        <v>2052</v>
+        <v>1130</v>
       </c>
       <c r="N51" s="7">
-        <v>1336540</v>
+        <v>842057</v>
       </c>
       <c r="O51" s="7" t="s">
         <v>53</v>
@@ -4126,55 +4237,55 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>3</v>
+        <v>309</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C52" s="7">
-        <v>2246</v>
+        <v>286</v>
       </c>
       <c r="D52" s="7">
-        <v>2158205</v>
+        <v>176779</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="H52" s="7">
-        <v>3281</v>
+        <v>360</v>
       </c>
       <c r="I52" s="7">
-        <v>2312421</v>
+        <v>160869</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="M52" s="7">
-        <v>5527</v>
+        <v>646</v>
       </c>
       <c r="N52" s="7">
-        <v>4470626</v>
+        <v>337647</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4183,49 +4294,49 @@
         <v>20</v>
       </c>
       <c r="C53" s="7">
-        <v>279</v>
+        <v>55</v>
       </c>
       <c r="D53" s="7">
-        <v>266561</v>
+        <v>36057</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="H53" s="7">
-        <v>151</v>
+        <v>11</v>
       </c>
       <c r="I53" s="7">
-        <v>108695</v>
+        <v>5859</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>333</v>
+        <v>84</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>334</v>
+        <v>168</v>
       </c>
       <c r="M53" s="7">
-        <v>430</v>
+        <v>66</v>
       </c>
       <c r="N53" s="7">
-        <v>375255</v>
+        <v>41916</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4234,49 +4345,49 @@
         <v>30</v>
       </c>
       <c r="C54" s="7">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D54" s="7">
-        <v>16952</v>
+        <v>1599</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>338</v>
+        <v>177</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>243</v>
+        <v>24</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>139</v>
+        <v>326</v>
       </c>
       <c r="H54" s="7">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="I54" s="7">
-        <v>6550</v>
+        <v>740</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>133</v>
+        <v>237</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>187</v>
+        <v>24</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>140</v>
+        <v>73</v>
       </c>
       <c r="M54" s="7">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="N54" s="7">
-        <v>23501</v>
+        <v>2339</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>97</v>
+        <v>178</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4285,49 +4396,49 @@
         <v>33</v>
       </c>
       <c r="C55" s="7">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="D55" s="7">
-        <v>83116</v>
+        <v>4929</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>293</v>
+        <v>330</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="H55" s="7">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="I55" s="7">
-        <v>20017</v>
+        <v>2156</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>130</v>
+        <v>24</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="M55" s="7">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="N55" s="7">
-        <v>103133</v>
+        <v>7085</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>79</v>
+        <v>335</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4336,49 +4447,49 @@
         <v>34</v>
       </c>
       <c r="C56" s="7">
+        <v>20</v>
+      </c>
+      <c r="D56" s="7">
+        <v>10849</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H56" s="7">
+        <v>13</v>
+      </c>
+      <c r="I56" s="7">
+        <v>6589</v>
+      </c>
+      <c r="J56" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="K56" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="D56" s="7">
-        <v>122600</v>
-      </c>
-      <c r="E56" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="F56" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="H56" s="7">
-        <v>105</v>
-      </c>
-      <c r="I56" s="7">
-        <v>82692</v>
-      </c>
-      <c r="J56" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="K56" s="7" t="s">
-        <v>157</v>
-      </c>
       <c r="L56" s="7" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="M56" s="7">
-        <v>250</v>
+        <v>33</v>
       </c>
       <c r="N56" s="7">
-        <v>205292</v>
+        <v>17438</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>303</v>
+        <v>342</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4387,49 +4498,49 @@
         <v>42</v>
       </c>
       <c r="C57" s="7">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="D57" s="7">
-        <v>43077</v>
+        <v>5543</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>22</v>
+        <v>188</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>355</v>
+        <v>333</v>
       </c>
       <c r="H57" s="7">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="I57" s="7">
-        <v>15319</v>
+        <v>1456</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>243</v>
+        <v>79</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>247</v>
+        <v>346</v>
       </c>
       <c r="M57" s="7">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="N57" s="7">
-        <v>58396</v>
+        <v>6999</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>359</v>
+        <v>245</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -4438,49 +4549,49 @@
         <v>43</v>
       </c>
       <c r="C58" s="7">
-        <v>441</v>
+        <v>75</v>
       </c>
       <c r="D58" s="7">
-        <v>394510</v>
+        <v>45128</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="H58" s="7">
-        <v>489</v>
+        <v>76</v>
       </c>
       <c r="I58" s="7">
-        <v>312668</v>
+        <v>35891</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>50</v>
+        <v>353</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="M58" s="7">
-        <v>930</v>
+        <v>151</v>
       </c>
       <c r="N58" s="7">
-        <v>707178</v>
+        <v>81019</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -4489,63 +4600,474 @@
         <v>3</v>
       </c>
       <c r="C59" s="7">
+        <v>455</v>
+      </c>
+      <c r="D59" s="7">
+        <v>280884</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H59" s="7">
+        <v>467</v>
+      </c>
+      <c r="I59" s="7">
+        <v>213560</v>
+      </c>
+      <c r="J59" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K59" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L59" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="M59" s="7">
+        <v>922</v>
+      </c>
+      <c r="N59" s="7">
+        <v>494444</v>
+      </c>
+      <c r="O59" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q59" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" s="7">
+        <v>2246</v>
+      </c>
+      <c r="D60" s="7">
+        <v>2087155</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="H60" s="7">
+        <v>3281</v>
+      </c>
+      <c r="I60" s="7">
+        <v>2266081</v>
+      </c>
+      <c r="J60" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="K60" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="L60" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M60" s="7">
+        <v>5527</v>
+      </c>
+      <c r="N60" s="7">
+        <v>4353236</v>
+      </c>
+      <c r="O60" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="P60" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="Q60" s="7" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A61" s="1"/>
+      <c r="B61" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C61" s="7">
+        <v>279</v>
+      </c>
+      <c r="D61" s="7">
+        <v>243015</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="H61" s="7">
+        <v>151</v>
+      </c>
+      <c r="I61" s="7">
+        <v>95687</v>
+      </c>
+      <c r="J61" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="K61" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="L61" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="M61" s="7">
+        <v>430</v>
+      </c>
+      <c r="N61" s="7">
+        <v>338702</v>
+      </c>
+      <c r="O61" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="P61" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q61" s="7" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A62" s="1"/>
+      <c r="B62" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C62" s="7">
+        <v>18</v>
+      </c>
+      <c r="D62" s="7">
+        <v>15827</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="G62" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="H62" s="7">
+        <v>11</v>
+      </c>
+      <c r="I62" s="7">
+        <v>5921</v>
+      </c>
+      <c r="J62" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K62" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="L62" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="M62" s="7">
+        <v>29</v>
+      </c>
+      <c r="N62" s="7">
+        <v>21749</v>
+      </c>
+      <c r="O62" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="P62" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q62" s="7" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A63" s="1"/>
+      <c r="B63" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C63" s="7">
+        <v>34</v>
+      </c>
+      <c r="D63" s="7">
+        <v>273758</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="G63" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="H63" s="7">
+        <v>28</v>
+      </c>
+      <c r="I63" s="7">
+        <v>17259</v>
+      </c>
+      <c r="J63" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="K63" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="L63" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="M63" s="7">
+        <v>62</v>
+      </c>
+      <c r="N63" s="7">
+        <v>291017</v>
+      </c>
+      <c r="O63" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="P63" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q63" s="7" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A64" s="1"/>
+      <c r="B64" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C64" s="7">
+        <v>145</v>
+      </c>
+      <c r="D64" s="7">
+        <v>116824</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="G64" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H64" s="7">
+        <v>105</v>
+      </c>
+      <c r="I64" s="7">
+        <v>130947</v>
+      </c>
+      <c r="J64" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K64" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="L64" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="M64" s="7">
+        <v>250</v>
+      </c>
+      <c r="N64" s="7">
+        <v>247772</v>
+      </c>
+      <c r="O64" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="P64" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q64" s="7" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A65" s="1"/>
+      <c r="B65" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C65" s="7">
+        <v>47</v>
+      </c>
+      <c r="D65" s="7">
+        <v>39949</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="H65" s="7">
+        <v>24</v>
+      </c>
+      <c r="I65" s="7">
+        <v>14241</v>
+      </c>
+      <c r="J65" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="K65" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="L65" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="M65" s="7">
+        <v>71</v>
+      </c>
+      <c r="N65" s="7">
+        <v>54190</v>
+      </c>
+      <c r="O65" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="P65" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q65" s="7" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A66" s="1"/>
+      <c r="B66" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C66" s="7">
+        <v>441</v>
+      </c>
+      <c r="D66" s="7">
+        <v>375339</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="H66" s="7">
+        <v>489</v>
+      </c>
+      <c r="I66" s="7">
+        <v>285105</v>
+      </c>
+      <c r="J66" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="K66" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="L66" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="M66" s="7">
+        <v>930</v>
+      </c>
+      <c r="N66" s="7">
+        <v>660444</v>
+      </c>
+      <c r="O66" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="P66" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="Q66" s="7" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A67" s="1"/>
+      <c r="B67" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C67" s="7">
         <v>3210</v>
       </c>
-      <c r="D59" s="7">
-        <v>3085020</v>
-      </c>
-      <c r="E59" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F59" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G59" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H59" s="7">
+      <c r="D67" s="7">
+        <v>3151867</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H67" s="7">
         <v>4089</v>
       </c>
-      <c r="I59" s="7">
-        <v>2858361</v>
-      </c>
-      <c r="J59" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="K59" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="L59" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="M59" s="7">
+      <c r="I67" s="7">
+        <v>2815243</v>
+      </c>
+      <c r="J67" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K67" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L67" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="M67" s="7">
         <v>7299</v>
       </c>
-      <c r="N59" s="7">
-        <v>5943381</v>
-      </c>
-      <c r="O59" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="P59" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q59" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>368</v>
+      <c r="N67" s="7">
+        <v>5967110</v>
+      </c>
+      <c r="O67" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P67" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q67" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>405</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A20:A27"/>
     <mergeCell ref="A28:A35"/>
     <mergeCell ref="A36:A43"/>
     <mergeCell ref="A44:A51"/>
     <mergeCell ref="A52:A59"/>
+    <mergeCell ref="A60:A67"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
